--- a/medicine/Enfance/Polly_Horvath/Polly_Horvath.xlsx
+++ b/medicine/Enfance/Polly_Horvath/Polly_Horvath.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polly Horvath (née le 30 janvier 1957 à Kalamazoo, Michigan) est une auteure américano-canadienne de romans pour enfants et jeunes adultes. Elle a remporté le National Book Award for Young People's Literature en 2003 pour The Canning Season, publié par Farrar, Straus et Giroux. En 2010, elle a reçu le prix canadien Vicky Metcalf dédié à la littérature jeunesse.
 </t>
@@ -513,22 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Polly Horvath naît le 30 janvier 1957 à Kalamazoo, Michigan[1]. Sa mère, Betty Horvath, écrit des livres d'images. Son père, John Horvath, enseigne la biologie au lycée[2].
-Elle débute l'écriture à l'âge de huit ans[3],[2]. Elle commence à envoyer des livres à des éditeurs à l'âge de 14 ans. Plusieurs sont intéressés mais lui demandent de les réécrire. Sa mère finira par leur répondre que l'auteure n'est qu'une enfant[2].
-À l'âge de 18 ans, elle part au Canada pour apprendre à enseigner le ballet[2]. Elle fréquente le Canadian College of Dance à Toronto puis la Martha Graham School of Contemporary Dance à New York[1].
-Carrière
-Tout en écrivant, elle occupe divers emplois, de l'enseignement de ballet à la dactylographie en passant par des missions en tant que serveuse ou nourrice[1].
-Plusieurs opérations du genou la contraignent à ne plus danser bien qu'elle continue à enseigner le ballet[2].
-À 23 ans, elle envoie An Occasional Cow à un éditeur. À la demande de ce dernier, elle passe sept ans à le réécrire avant qu'il ne soit finalement publié[2].
-Elle enseigne le ballet encore trois années de plus avant de se consacrer uniquement à l'écriture[2]. Une fois maman, elle écrit lorsque ses filles sont à l'école, de 9h30 à 14h ou 14h30, dans un bureau au sous-sol de sa maison donnant sur un verger[1],[2].
-En 2002, elle remporte un Newbery Honor Book award pour Everything on a Waffle. Le livre raconte l'histoire de Primrose qui refuse de croire que ses parents se sont perdus en mer et qui trouve du réconfort auprès de son oncle et du propriétaire d'un étrange restaurant[2].
-L'année suivante, The Canning Season remporte le National Book Award for Young People's Literature[4]. Le roman, dédié aux 11-13 ans, raconte l'histoire hilarante mais non moins déchirante de deux enfants non désirés confiés à deux vieilles dames excentriques. « Une fois de plus, Horvath fait preuve d'un génie pour créer des familles multigénérationnelles et élargies de manière intéressante, et pour mélanger la comédie haute et basse dans un conte rempli de thèmes importants et d'événements qui changent la vie » peut-on lire dans Kirkus Reviews[5].
-En 2010, l'ensemble de son œuvre est récompensé avec le Prix Vicky Metcalf[6].
-En 2013, One Year in Coal Harbour est le lauréat du Prix TD de littérature jeunesse canadienne. L'auteure reçoit 30 000 $[7]. Le livre raconte la suite de l'histoire de Everything on a Waffle[8].  
-Après une vingtaine de romans destinés aux adolescents, Polly Horvath publie en 2024 son premier livre d'images, Not a Smiley Guy, qui raconte les premières années d'un enfant nommé Ernest. Ses parents s'inquiètent car ce dernier ne sourit jamais. En désespoir de cause, ils lui offrent un éléphant nommé Marcia[9].
-Vie privée
-Elle est mariée à Arnie Keller, professeur d'écriture, avec qui elle a deux filles : Emily et Rebecca Keller, âgées en 2002 de respectivement 15 et 12 ans[2]. Elle vit à New York et à Montréal avant de s'installer à Metchosin dans le sud de l'île de Vancouver, en Colombie-Britannique, avec son mari et ses enfants[1],[2].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polly Horvath naît le 30 janvier 1957 à Kalamazoo, Michigan. Sa mère, Betty Horvath, écrit des livres d'images. Son père, John Horvath, enseigne la biologie au lycée.
+Elle débute l'écriture à l'âge de huit ans,. Elle commence à envoyer des livres à des éditeurs à l'âge de 14 ans. Plusieurs sont intéressés mais lui demandent de les réécrire. Sa mère finira par leur répondre que l'auteure n'est qu'une enfant.
+À l'âge de 18 ans, elle part au Canada pour apprendre à enseigner le ballet. Elle fréquente le Canadian College of Dance à Toronto puis la Martha Graham School of Contemporary Dance à New York.
 </t>
         </is>
       </c>
@@ -554,22 +559,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Récompenses et honneurs</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2002, Polly Horvath remporte un Newbery Honor Book award pour Everything on a Waffle[2].
-En 2003, elle remporte le National Book Award for Young People's Literature pour The Canning Season[10].
-En 2010, elle reçoit le prix Vicky Metcalf de littérature pour la jeunesse[11], qui est considéré comme la plus haute distinction pour les écrivains et illustrateurs canadiens de livres pour enfants.
-Six des livres de Horvath sont des sélections de la Junior Library Guild : My One Hundred Adventures (2009)[12], Northward to the Moon (2010)[13], One Year in Coal Harbour (2013)[14], The Night Garden (2017)[15], Very rich (2018)[16], et Pine Island Home (2020)[17].
-Ses livres figurent également sur de nombreuses listes des meilleurs livres de l’année :
-En 1999, The Horn Book Magazine désigne The Trolls comme l'un des meilleurs livres de fiction pour enfants de l'année[18].
-En 2003, The Horn Book Magazine désigne The Canning Season comme l'un des meilleurs livres de fiction pour enfants de l'année[18].
-En 2004, The Horn Book Magazine désigne The Pepins and their Problems comme l'un des meilleurs livres de fiction pour enfants de l'année[18].
-En 2008, Booklist et School Library Journal nomment My One Hundred Adventures comme l'un des meilleurs livres pour enfants de l'année[12].
-En 2013, le School Library Journal nomme One Year in Coal Harbour comme l'un des meilleurs livres pour enfants de l'année[14].
-Ses livres sont traduits dans plus de vingt-cinq langues[7].
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout en écrivant, elle occupe divers emplois, de l'enseignement de ballet à la dactylographie en passant par des missions en tant que serveuse ou nourrice.
+Plusieurs opérations du genou la contraignent à ne plus danser bien qu'elle continue à enseigner le ballet.
+À 23 ans, elle envoie An Occasional Cow à un éditeur. À la demande de ce dernier, elle passe sept ans à le réécrire avant qu'il ne soit finalement publié.
+Elle enseigne le ballet encore trois années de plus avant de se consacrer uniquement à l'écriture. Une fois maman, elle écrit lorsque ses filles sont à l'école, de 9h30 à 14h ou 14h30, dans un bureau au sous-sol de sa maison donnant sur un verger,.
+En 2002, elle remporte un Newbery Honor Book award pour Everything on a Waffle. Le livre raconte l'histoire de Primrose qui refuse de croire que ses parents se sont perdus en mer et qui trouve du réconfort auprès de son oncle et du propriétaire d'un étrange restaurant.
+L'année suivante, The Canning Season remporte le National Book Award for Young People's Literature. Le roman, dédié aux 11-13 ans, raconte l'histoire hilarante mais non moins déchirante de deux enfants non désirés confiés à deux vieilles dames excentriques. « Une fois de plus, Horvath fait preuve d'un génie pour créer des familles multigénérationnelles et élargies de manière intéressante, et pour mélanger la comédie haute et basse dans un conte rempli de thèmes importants et d'événements qui changent la vie » peut-on lire dans Kirkus Reviews.
+En 2010, l'ensemble de son œuvre est récompensé avec le Prix Vicky Metcalf.
+En 2013, One Year in Coal Harbour est le lauréat du Prix TD de littérature jeunesse canadienne. L'auteure reçoit 30 000 $. Le livre raconte la suite de l'histoire de Everything on a Waffle.  
+Après une vingtaine de romans destinés aux adolescents, Polly Horvath publie en 2024 son premier livre d'images, Not a Smiley Guy, qui raconte les premières années d'un enfant nommé Ernest. Ses parents s'inquiètent car ce dernier ne sourit jamais. En désespoir de cause, ils lui offrent un éléphant nommé Marcia.
 </t>
         </is>
       </c>
@@ -595,10 +604,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est mariée à Arnie Keller, professeur d'écriture, avec qui elle a deux filles : Emily et Rebecca Keller, âgées en 2002 de respectivement 15 et 12 ans. Elle vit à New York et à Montréal avant de s'installer à Metchosin dans le sud de l'île de Vancouver, en Colombie-Britannique, avec son mari et ses enfants,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Polly_Horvath</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polly_Horvath</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Récompenses et honneurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, Polly Horvath remporte un Newbery Honor Book award pour Everything on a Waffle.
+En 2003, elle remporte le National Book Award for Young People's Literature pour The Canning Season.
+En 2010, elle reçoit le prix Vicky Metcalf de littérature pour la jeunesse, qui est considéré comme la plus haute distinction pour les écrivains et illustrateurs canadiens de livres pour enfants.
+Six des livres de Horvath sont des sélections de la Junior Library Guild : My One Hundred Adventures (2009), Northward to the Moon (2010), One Year in Coal Harbour (2013), The Night Garden (2017), Very rich (2018), et Pine Island Home (2020).
+Ses livres figurent également sur de nombreuses listes des meilleurs livres de l’année :
+En 1999, The Horn Book Magazine désigne The Trolls comme l'un des meilleurs livres de fiction pour enfants de l'année.
+En 2003, The Horn Book Magazine désigne The Canning Season comme l'un des meilleurs livres de fiction pour enfants de l'année.
+En 2004, The Horn Book Magazine désigne The Pepins and their Problems comme l'un des meilleurs livres de fiction pour enfants de l'année.
+En 2008, Booklist et School Library Journal nomment My One Hundred Adventures comme l'un des meilleurs livres pour enfants de l'année.
+En 2013, le School Library Journal nomme One Year in Coal Harbour comme l'un des meilleurs livres pour enfants de l'année.
+Ses livres sont traduits dans plus de vingt-cinq langues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Polly_Horvath</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polly_Horvath</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>An Occasional Cow (1989)
 No More Cornflakes (1990)
